--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1878.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1878.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.646090947444987</v>
+        <v>1.863862156867981</v>
       </c>
       <c r="B1">
-        <v>4.351780758367103</v>
+        <v>1.858894467353821</v>
       </c>
       <c r="C1">
-        <v>4.209196020988752</v>
+        <v>1.931584596633911</v>
       </c>
       <c r="D1">
-        <v>1.154466050645481</v>
+        <v>3.224822998046875</v>
       </c>
       <c r="E1">
-        <v>0.6798471965064685</v>
+        <v>4.314071655273438</v>
       </c>
     </row>
   </sheetData>
